--- a/SampleTracker.xlsx
+++ b/SampleTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\excelExtract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\package-from-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF12E5AF-C721-453D-8513-8A9BA8895865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2443AE78-4721-46DF-8512-7A6D31ACB2BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{9596144C-D558-4577-9675-110C8ECB3F4B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="634">
   <si>
     <t>Profile</t>
   </si>
@@ -2466,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E9F571-5A69-44DA-AA92-5AD92BEA3D87}">
   <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6436,12 +6436,14 @@
         <v>463</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="C240" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D240" s="17" t="s">
         <v>465</v>
       </c>
@@ -6449,12 +6451,14 @@
         <v>466</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
+      <c r="C241" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D241" s="17" t="s">
         <v>467</v>
       </c>
@@ -6462,12 +6466,14 @@
         <v>468</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
+      <c r="C242" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D242" s="17" t="s">
         <v>469</v>
       </c>
@@ -6475,12 +6481,14 @@
         <v>470</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
+      <c r="C243" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D243" s="18" t="s">
         <v>471</v>
       </c>
@@ -6488,12 +6496,14 @@
         <v>472</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
+      <c r="C244" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D244" s="18" t="s">
         <v>473</v>
       </c>
@@ -6501,12 +6511,14 @@
         <v>474</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
+      <c r="C245" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D245" s="18" t="s">
         <v>475</v>
       </c>
@@ -6514,12 +6526,14 @@
         <v>476</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
+      <c r="C246" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D246" s="18" t="s">
         <v>477</v>
       </c>
@@ -6527,12 +6541,14 @@
         <v>478</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
+      <c r="C247" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D247" s="18" t="s">
         <v>479</v>
       </c>
@@ -6540,12 +6556,14 @@
         <v>480</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
+      <c r="C248" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D248" s="18" t="s">
         <v>481</v>
       </c>
@@ -6553,12 +6571,14 @@
         <v>482</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
+      <c r="C249" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D249" s="18" t="s">
         <v>483</v>
       </c>
@@ -6566,12 +6586,14 @@
         <v>484</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
+      <c r="C250" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D250" s="18" t="s">
         <v>485</v>
       </c>
@@ -6579,12 +6601,14 @@
         <v>486</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
+      <c r="C251" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D251" s="18" t="s">
         <v>487</v>
       </c>
@@ -8305,7 +8329,9 @@
         <v>611</v>
       </c>
       <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
+      <c r="C366" s="24" t="s">
+        <v>612</v>
+      </c>
       <c r="D366" s="24" t="s">
         <v>612</v>
       </c>
@@ -8318,7 +8344,9 @@
         <v>611</v>
       </c>
       <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
+      <c r="C367" s="24" t="s">
+        <v>612</v>
+      </c>
       <c r="D367" s="24" t="s">
         <v>612</v>
       </c>
@@ -8331,7 +8359,9 @@
         <v>611</v>
       </c>
       <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
+      <c r="C368" s="24" t="s">
+        <v>612</v>
+      </c>
       <c r="D368" s="24" t="s">
         <v>612</v>
       </c>
@@ -8344,7 +8374,9 @@
         <v>611</v>
       </c>
       <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
+      <c r="C369" s="24" t="s">
+        <v>612</v>
+      </c>
       <c r="D369" s="24" t="s">
         <v>612</v>
       </c>
@@ -8357,7 +8389,9 @@
         <v>611</v>
       </c>
       <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
+      <c r="C370" s="24" t="s">
+        <v>612</v>
+      </c>
       <c r="D370" s="24" t="s">
         <v>612</v>
       </c>
@@ -8370,7 +8404,9 @@
         <v>611</v>
       </c>
       <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
+      <c r="C371" s="24" t="s">
+        <v>612</v>
+      </c>
       <c r="D371" s="24" t="s">
         <v>612</v>
       </c>
@@ -8383,7 +8419,9 @@
         <v>618</v>
       </c>
       <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
+      <c r="C372" s="25" t="s">
+        <v>619</v>
+      </c>
       <c r="D372" s="25" t="s">
         <v>619</v>
       </c>
